--- a/data/trans_orig/P04A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D4F79EE-D193-4D59-9906-690369132287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA657C69-18E8-4F45-ABD9-F0B648C3420D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D3ACCC5-278B-4C00-AA4E-39CAFBB3F395}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBC9271A-C06E-4226-8782-7E5559EBAC81}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="363">
-  <si>
-    <t>Población según si lavivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="364">
+  <si>
+    <t>Población según si la vivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,10 +74,10 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>1,44%</t>
@@ -86,985 +86,988 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>En cesión (gratuita o bajo precio)</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>En alquiler</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>En propiedad, por herencia o donación</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>En propiedad, con hipoteca</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>En propiedad, totalmente pagada</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>En cesión (gratuita o bajo precio)</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>En alquiler</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>En propiedad, por herencia o donación</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>En propiedad, con hipoteca</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>En propiedad, totalmente pagada</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>11,54%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>8,99%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>5,87%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>3,78%</t>
   </si>
   <si>
     <t>4,83%</t>
@@ -1073,55 +1076,55 @@
     <t>24,47%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>23,53%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>57,67%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1536,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535E8504-1808-44A9-B647-A413B7329B63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750EE46C-73EA-46E8-B106-42D7B4C1D870}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1744,16 +1747,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>26</v>
@@ -1762,13 +1765,13 @@
         <v>32004</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -1777,13 +1780,13 @@
         <v>67420</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>74</v>
@@ -1792,19 +1795,19 @@
         <v>99424</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -1813,13 +1816,13 @@
         <v>23474</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1828,13 +1831,13 @@
         <v>10936</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -1843,19 +1846,19 @@
         <v>34411</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>36</v>
@@ -1864,13 +1867,13 @@
         <v>88897</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>47</v>
@@ -1879,13 +1882,13 @@
         <v>81028</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>83</v>
@@ -1894,19 +1897,19 @@
         <v>169925</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>90</v>
@@ -1915,13 +1918,13 @@
         <v>200592</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>96</v>
@@ -1930,13 +1933,13 @@
         <v>180602</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>186</v>
@@ -1945,13 +1948,13 @@
         <v>381194</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,13 +1969,13 @@
         <v>364510</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>206</v>
@@ -1981,13 +1984,13 @@
         <v>353249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>374</v>
@@ -1996,18 +1999,18 @@
         <v>717759</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2019,13 +2022,13 @@
         <v>6509</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2034,13 +2037,13 @@
         <v>3552</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2049,13 +2052,13 @@
         <v>10062</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,13 +2073,13 @@
         <v>12764</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -2085,13 +2088,13 @@
         <v>11533</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -2100,19 +2103,19 @@
         <v>24297</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>76</v>
@@ -2163,7 +2166,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
@@ -2214,7 +2217,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7">
         <v>84</v>
@@ -2265,7 +2268,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7">
         <v>105</v>
@@ -2325,13 +2328,13 @@
         <v>426894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>458</v>
@@ -2340,13 +2343,13 @@
         <v>496746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>759</v>
@@ -2355,13 +2358,13 @@
         <v>923640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2381,13 @@
         <v>3994</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2393,13 +2396,13 @@
         <v>4243</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -2408,13 +2411,13 @@
         <v>8237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2432,13 @@
         <v>15879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -2444,13 +2447,13 @@
         <v>11349</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -2459,19 +2462,19 @@
         <v>27228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>117</v>
@@ -2522,7 +2525,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7">
         <v>33</v>
@@ -2549,10 +2552,10 @@
         <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>68</v>
@@ -2561,10 +2564,10 @@
         <v>61434</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>158</v>
@@ -2573,7 +2576,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7">
         <v>226</v>
@@ -2624,7 +2627,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>146</v>
@@ -2651,10 +2654,10 @@
         <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>401</v>
@@ -2684,13 +2687,13 @@
         <v>551960</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>845</v>
@@ -2699,13 +2702,13 @@
         <v>608141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>1387</v>
@@ -2714,13 +2717,13 @@
         <v>1160101</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,10 +2740,10 @@
         <v>5191</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>177</v>
@@ -2755,10 +2758,10 @@
         <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2767,13 +2770,13 @@
         <v>9902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2791,7 @@
         <v>9521</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>184</v>
@@ -2803,13 +2806,13 @@
         <v>9075</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -2818,19 +2821,19 @@
         <v>18595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7">
         <v>78</v>
@@ -2839,13 +2842,13 @@
         <v>65640</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H27" s="7">
         <v>95</v>
@@ -2854,13 +2857,13 @@
         <v>58167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M27" s="7">
         <v>173</v>
@@ -2869,19 +2872,19 @@
         <v>123806</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>28</v>
@@ -2890,13 +2893,13 @@
         <v>29492</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>44</v>
@@ -2905,13 +2908,13 @@
         <v>26239</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -2923,7 +2926,7 @@
         <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>205</v>
@@ -2932,7 +2935,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7">
         <v>220</v>
@@ -2941,13 +2944,13 @@
         <v>234430</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>382</v>
@@ -2956,10 +2959,10 @@
         <v>253908</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>210</v>
@@ -2983,7 +2986,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>323</v>
@@ -3043,13 +3046,13 @@
         <v>723990</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>1134</v>
@@ -3058,13 +3061,13 @@
         <v>742366</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>1799</v>
@@ -3073,13 +3076,13 @@
         <v>1466356</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3099,13 @@
         <v>2588</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -3111,13 +3114,13 @@
         <v>1294</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3126,13 +3129,13 @@
         <v>3883</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3150,13 @@
         <v>6356</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -3162,13 +3165,13 @@
         <v>7430</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -3177,19 +3180,19 @@
         <v>13786</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>50</v>
@@ -3198,13 +3201,13 @@
         <v>32403</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>64</v>
@@ -3213,13 +3216,13 @@
         <v>30943</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>114</v>
@@ -3228,19 +3231,19 @@
         <v>63346</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="7">
         <v>29</v>
@@ -3249,13 +3252,13 @@
         <v>28061</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
@@ -3264,13 +3267,13 @@
         <v>20016</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>61</v>
@@ -3279,19 +3282,19 @@
         <v>48078</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7">
         <v>91</v>
@@ -3300,13 +3303,13 @@
         <v>89519</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>143</v>
@@ -3315,13 +3318,13 @@
         <v>88414</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>234</v>
@@ -3330,19 +3333,19 @@
         <v>177933</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7">
         <v>480</v>
@@ -3351,13 +3354,13 @@
         <v>439328</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>745</v>
@@ -3366,13 +3369,13 @@
         <v>447496</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>1225</v>
@@ -3381,13 +3384,13 @@
         <v>886824</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3405,13 @@
         <v>598256</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H38" s="7">
         <v>999</v>
@@ -3417,13 +3420,13 @@
         <v>595594</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M38" s="7">
         <v>1660</v>
@@ -3432,18 +3435,18 @@
         <v>1193850</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3455,13 +3458,13 @@
         <v>2418</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H39" s="7">
         <v>11</v>
@@ -3470,13 +3473,13 @@
         <v>6605</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="M39" s="7">
         <v>14</v>
@@ -3485,13 +3488,13 @@
         <v>9023</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3509,13 @@
         <v>6584</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="H40" s="7">
         <v>13</v>
@@ -3521,13 +3524,13 @@
         <v>7120</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="M40" s="7">
         <v>23</v>
@@ -3536,19 +3539,19 @@
         <v>13704</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P40" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q40" s="7" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="7">
         <v>54</v>
@@ -3557,13 +3560,13 @@
         <v>33871</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="H41" s="7">
         <v>60</v>
@@ -3572,13 +3575,13 @@
         <v>29366</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="M41" s="7">
         <v>114</v>
@@ -3587,19 +3590,19 @@
         <v>63238</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>28</v>
@@ -3608,13 +3611,13 @@
         <v>19777</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -3623,13 +3626,13 @@
         <v>25997</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>75</v>
@@ -3638,19 +3641,19 @@
         <v>45774</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7">
         <v>32</v>
@@ -3659,13 +3662,13 @@
         <v>23484</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>301</v>
+        <v>17</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H43" s="7">
         <v>55</v>
@@ -3674,13 +3677,13 @@
         <v>32996</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>99</v>
+        <v>300</v>
       </c>
       <c r="M43" s="7">
         <v>87</v>
@@ -3689,19 +3692,19 @@
         <v>56479</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="7">
         <v>900</v>
@@ -3710,13 +3713,13 @@
         <v>610747</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>1519</v>
@@ -3725,13 +3728,13 @@
         <v>922719</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>2419</v>
@@ -3740,13 +3743,13 @@
         <v>1533466</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3764,13 @@
         <v>696881</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H45" s="7">
         <v>1705</v>
@@ -3776,13 +3779,13 @@
         <v>1024803</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M45" s="7">
         <v>2732</v>
@@ -3791,13 +3794,13 @@
         <v>1721684</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3817,13 @@
         <v>32675</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>36</v>
@@ -3829,13 +3832,13 @@
         <v>25504</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>59</v>
@@ -3844,13 +3847,13 @@
         <v>58179</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3868,13 @@
         <v>58672</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H47" s="7">
         <v>72</v>
@@ -3880,13 +3883,13 @@
         <v>54670</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>132</v>
@@ -3895,19 +3898,19 @@
         <v>113342</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P47" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="Q47" s="7" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="7">
         <v>401</v>
@@ -3916,10 +3919,10 @@
         <v>343232</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>330</v>
@@ -3937,7 +3940,7 @@
         <v>332</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="M48" s="7">
         <v>919</v>
@@ -3946,19 +3949,19 @@
         <v>746540</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="7">
         <v>147</v>
@@ -3967,10 +3970,10 @@
         <v>165861</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>338</v>
@@ -3988,7 +3991,7 @@
         <v>340</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>154</v>
+        <v>341</v>
       </c>
       <c r="M49" s="7">
         <v>340</v>
@@ -3997,19 +4000,19 @@
         <v>307696</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>689</v>
@@ -4018,13 +4021,13 @@
         <v>822934</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H50" s="7">
         <v>1166</v>
@@ -4033,13 +4036,13 @@
         <v>898942</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M50" s="7">
         <v>1855</v>
@@ -4048,34 +4051,34 @@
         <v>1721876</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7">
         <v>2044</v>
       </c>
       <c r="D51" s="7">
-        <v>1939116</v>
+        <v>1939117</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H51" s="7">
         <v>3362</v>
@@ -4084,13 +4087,13 @@
         <v>2296641</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M51" s="7">
         <v>5406</v>
@@ -4099,13 +4102,13 @@
         <v>4235757</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,16 +4120,16 @@
         <v>3364</v>
       </c>
       <c r="D52" s="7">
-        <v>3362491</v>
+        <v>3362492</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H52" s="7">
         <v>5347</v>
@@ -4135,13 +4138,13 @@
         <v>3820899</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M52" s="7">
         <v>8711</v>
@@ -4150,18 +4153,18 @@
         <v>7183390</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA657C69-18E8-4F45-ABD9-F0B648C3420D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02C0D571-3F32-4F26-B55C-F60915326BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBC9271A-C06E-4226-8782-7E5559EBAC81}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9BBCE754-4598-4B00-B754-601D2404C12C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="393">
   <si>
     <t>Población según si la vivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -65,1066 +65,1153 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otra situación</t>
   </si>
   <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>En cesión (gratuita o bajo precio)</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>En alquiler</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>En propiedad, por herencia o donación</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>En propiedad, con hipoteca</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>En propiedad, totalmente pagada</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>En cesión (gratuita o bajo precio)</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>En alquiler</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>En propiedad, por herencia o donación</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>En propiedad, con hipoteca</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>En propiedad, totalmente pagada</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1539,8 +1626,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750EE46C-73EA-46E8-B106-42D7B4C1D870}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29FC9B-F2C8-46B7-B345-A7FE2C8639A7}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1660,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>11974</v>
+        <v>11521</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1675,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>5099</v>
+        <v>4627</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1690,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>17073</v>
+        <v>16148</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1711,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>7568</v>
+        <v>7547</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1726,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>8164</v>
+        <v>7266</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1741,220 +1828,220 @@
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>15732</v>
+        <v>14814</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>32004</v>
+        <v>31769</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
       </c>
       <c r="I6" s="7">
-        <v>67420</v>
+        <v>62307</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>74</v>
       </c>
       <c r="N6" s="7">
-        <v>99424</v>
+        <v>94076</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>23474</v>
+        <v>28122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>10936</v>
+        <v>10709</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>34411</v>
+        <v>38830</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>88897</v>
+        <v>98107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>47</v>
       </c>
       <c r="I8" s="7">
-        <v>81028</v>
+        <v>71332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>83</v>
       </c>
       <c r="N8" s="7">
-        <v>169925</v>
+        <v>169439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>90</v>
       </c>
       <c r="D9" s="7">
-        <v>200592</v>
+        <v>207079</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>96</v>
       </c>
       <c r="I9" s="7">
-        <v>180602</v>
+        <v>155349</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>381194</v>
+        <v>362428</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,51 +2053,51 @@
         <v>168</v>
       </c>
       <c r="D10" s="7">
-        <v>364510</v>
+        <v>384146</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>206</v>
       </c>
       <c r="I10" s="7">
-        <v>353249</v>
+        <v>311590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>374</v>
       </c>
       <c r="N10" s="7">
-        <v>717759</v>
+        <v>695736</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2019,46 +2106,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>6509</v>
+        <v>6701</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>3552</v>
+        <v>3208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>10062</v>
+        <v>9909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,13 +2157,13 @@
         <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>12764</v>
+        <v>12596</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>82</v>
@@ -2085,235 +2172,235 @@
         <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>11533</v>
+        <v>10853</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
       </c>
       <c r="N12" s="7">
-        <v>24297</v>
+        <v>23449</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>76</v>
       </c>
       <c r="D13" s="7">
-        <v>98536</v>
+        <v>96964</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
       </c>
       <c r="I13" s="7">
-        <v>114555</v>
+        <v>159943</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
       </c>
       <c r="N13" s="7">
-        <v>213091</v>
+        <v>256908</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>29708</v>
+        <v>32603</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>32559</v>
+        <v>31354</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>62268</v>
+        <v>63957</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
         <v>84</v>
       </c>
       <c r="D15" s="7">
-        <v>124681</v>
+        <v>126323</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>146</v>
       </c>
       <c r="I15" s="7">
-        <v>153368</v>
+        <v>141722</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>230</v>
       </c>
       <c r="N15" s="7">
-        <v>278049</v>
+        <v>268045</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>105</v>
       </c>
       <c r="D16" s="7">
-        <v>154696</v>
+        <v>146832</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
       </c>
       <c r="I16" s="7">
-        <v>181178</v>
+        <v>162683</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>263</v>
       </c>
       <c r="N16" s="7">
-        <v>335874</v>
+        <v>309515</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,51 +2412,51 @@
         <v>301</v>
       </c>
       <c r="D17" s="7">
-        <v>426894</v>
+        <v>422020</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>458</v>
       </c>
       <c r="I17" s="7">
-        <v>496746</v>
+        <v>509762</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>759</v>
       </c>
       <c r="N17" s="7">
-        <v>923640</v>
+        <v>931782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2378,10 +2465,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>3994</v>
+        <v>4038</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>126</v>
@@ -2393,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>4243</v>
+        <v>4005</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>128</v>
@@ -2408,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>8237</v>
+        <v>8042</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>131</v>
@@ -2417,7 +2504,7 @@
         <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,130 +2516,130 @@
         <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>15879</v>
+        <v>15250</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>11349</v>
+        <v>10597</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
       </c>
       <c r="N19" s="7">
-        <v>27228</v>
+        <v>25847</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
         <v>117</v>
       </c>
       <c r="D20" s="7">
-        <v>80778</v>
+        <v>78064</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
       </c>
       <c r="I20" s="7">
-        <v>102856</v>
+        <v>120275</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>257</v>
       </c>
       <c r="N20" s="7">
-        <v>183634</v>
+        <v>198340</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
         <v>33</v>
       </c>
       <c r="D21" s="7">
-        <v>35348</v>
+        <v>35943</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
       </c>
       <c r="I21" s="7">
-        <v>26086</v>
+        <v>25208</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>155</v>
@@ -2561,7 +2648,7 @@
         <v>68</v>
       </c>
       <c r="N21" s="7">
-        <v>61434</v>
+        <v>61151</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>156</v>
@@ -2576,13 +2663,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>226</v>
       </c>
       <c r="D22" s="7">
-        <v>261923</v>
+        <v>253597</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>159</v>
@@ -2597,7 +2684,7 @@
         <v>393</v>
       </c>
       <c r="I22" s="7">
-        <v>289227</v>
+        <v>270859</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>162</v>
@@ -2612,7 +2699,7 @@
         <v>619</v>
       </c>
       <c r="N22" s="7">
-        <v>551151</v>
+        <v>524456</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>165</v>
@@ -2627,13 +2714,13 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>146</v>
       </c>
       <c r="D23" s="7">
-        <v>154037</v>
+        <v>144476</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>168</v>
@@ -2648,7 +2735,7 @@
         <v>255</v>
       </c>
       <c r="I23" s="7">
-        <v>174380</v>
+        <v>158941</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>171</v>
@@ -2657,22 +2744,22 @@
         <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="M23" s="7">
         <v>401</v>
       </c>
       <c r="N23" s="7">
-        <v>328417</v>
+        <v>303417</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,51 +2771,51 @@
         <v>542</v>
       </c>
       <c r="D24" s="7">
-        <v>551960</v>
+        <v>531368</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>845</v>
       </c>
       <c r="I24" s="7">
-        <v>608141</v>
+        <v>589885</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1387</v>
       </c>
       <c r="N24" s="7">
-        <v>1160101</v>
+        <v>1121253</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2737,46 +2824,46 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>5191</v>
+        <v>5094</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>4711</v>
+        <v>4430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
       </c>
       <c r="N25" s="7">
-        <v>9902</v>
+        <v>9524</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,250 +2875,250 @@
         <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>9521</v>
+        <v>8586</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>9075</v>
+        <v>8310</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
       </c>
       <c r="N26" s="7">
-        <v>18595</v>
+        <v>16897</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7">
         <v>78</v>
       </c>
       <c r="D27" s="7">
-        <v>65640</v>
+        <v>67088</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H27" s="7">
         <v>95</v>
       </c>
       <c r="I27" s="7">
-        <v>58167</v>
+        <v>52530</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>173</v>
       </c>
       <c r="N27" s="7">
-        <v>123806</v>
+        <v>119617</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
         <v>28</v>
       </c>
       <c r="D28" s="7">
-        <v>29492</v>
+        <v>28978</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>44</v>
       </c>
       <c r="I28" s="7">
-        <v>26239</v>
+        <v>25064</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
       </c>
       <c r="N28" s="7">
-        <v>55732</v>
+        <v>54042</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>220</v>
       </c>
       <c r="D29" s="7">
-        <v>234430</v>
+        <v>226342</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H29" s="7">
         <v>382</v>
       </c>
       <c r="I29" s="7">
-        <v>253908</v>
+        <v>235803</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M29" s="7">
         <v>602</v>
       </c>
       <c r="N29" s="7">
-        <v>488339</v>
+        <v>462145</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>323</v>
       </c>
       <c r="D30" s="7">
-        <v>379717</v>
+        <v>551698</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>589</v>
       </c>
       <c r="I30" s="7">
-        <v>390266</v>
+        <v>382308</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>912</v>
       </c>
       <c r="N30" s="7">
-        <v>769982</v>
+        <v>934006</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,51 +3130,51 @@
         <v>665</v>
       </c>
       <c r="D31" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>1134</v>
       </c>
       <c r="I31" s="7">
-        <v>742366</v>
+        <v>708446</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>1799</v>
       </c>
       <c r="N31" s="7">
-        <v>1466356</v>
+        <v>1596232</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3096,46 +3183,46 @@
         <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>2588</v>
+        <v>2502</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1294</v>
+        <v>1205</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>3883</v>
+        <v>3706</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>132</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,250 +3234,250 @@
         <v>8</v>
       </c>
       <c r="D33" s="7">
-        <v>6356</v>
+        <v>5728</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
       </c>
       <c r="I33" s="7">
-        <v>7430</v>
+        <v>6735</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
       </c>
       <c r="N33" s="7">
-        <v>13786</v>
+        <v>12463</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="7">
         <v>50</v>
       </c>
       <c r="D34" s="7">
-        <v>32403</v>
+        <v>31490</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>64</v>
       </c>
       <c r="I34" s="7">
-        <v>30943</v>
+        <v>28806</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>114</v>
       </c>
       <c r="N34" s="7">
-        <v>63346</v>
+        <v>60296</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7">
         <v>29</v>
       </c>
       <c r="D35" s="7">
-        <v>28061</v>
+        <v>26387</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
       </c>
       <c r="I35" s="7">
-        <v>20016</v>
+        <v>18707</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>61</v>
       </c>
       <c r="N35" s="7">
-        <v>48078</v>
+        <v>45094</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
         <v>91</v>
       </c>
       <c r="D36" s="7">
-        <v>89519</v>
+        <v>85465</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>143</v>
       </c>
       <c r="I36" s="7">
-        <v>88414</v>
+        <v>81660</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M36" s="7">
         <v>234</v>
       </c>
       <c r="N36" s="7">
-        <v>177933</v>
+        <v>167125</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>480</v>
       </c>
       <c r="D37" s="7">
-        <v>439328</v>
+        <v>407853</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H37" s="7">
         <v>745</v>
       </c>
       <c r="I37" s="7">
-        <v>447496</v>
+        <v>409412</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>1225</v>
       </c>
       <c r="N37" s="7">
-        <v>886824</v>
+        <v>817265</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,99 +3489,99 @@
         <v>661</v>
       </c>
       <c r="D38" s="7">
-        <v>598256</v>
+        <v>559424</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" s="7">
         <v>999</v>
       </c>
       <c r="I38" s="7">
-        <v>595594</v>
+        <v>546525</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M38" s="7">
         <v>1660</v>
       </c>
       <c r="N38" s="7">
-        <v>1193850</v>
+        <v>1105949</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="7">
-        <v>2418</v>
+        <v>1445</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H39" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I39" s="7">
-        <v>6605</v>
+        <v>1958</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>275</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="M39" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N39" s="7">
-        <v>9023</v>
+        <v>3403</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>278</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,142 +3590,142 @@
         <v>20</v>
       </c>
       <c r="C40" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="7">
-        <v>6584</v>
+        <v>5533</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="H40" s="7">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7">
+        <v>2586</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" s="7">
         <v>13</v>
       </c>
-      <c r="I40" s="7">
-        <v>7120</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M40" s="7">
-        <v>23</v>
-      </c>
       <c r="N40" s="7">
-        <v>13704</v>
+        <v>8119</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="7">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D41" s="7">
-        <v>33871</v>
+        <v>21234</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="H41" s="7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I41" s="7">
-        <v>29366</v>
+        <v>19985</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="N41" s="7">
-        <v>63238</v>
+        <v>41219</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D42" s="7">
-        <v>19777</v>
+        <v>14517</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I42" s="7">
-        <v>25997</v>
+        <v>9859</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>293</v>
       </c>
       <c r="M42" s="7">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="N42" s="7">
-        <v>45774</v>
+        <v>24376</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>294</v>
@@ -3653,103 +3740,103 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D43" s="7">
-        <v>23484</v>
+        <v>17066</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>297</v>
       </c>
       <c r="H43" s="7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I43" s="7">
-        <v>32996</v>
+        <v>21349</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>298</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>65</v>
+      </c>
+      <c r="N43" s="7">
+        <v>38415</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="M43" s="7">
-        <v>87</v>
-      </c>
-      <c r="N43" s="7">
-        <v>56479</v>
-      </c>
-      <c r="O43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7">
-        <v>900</v>
+        <v>474</v>
       </c>
       <c r="D44" s="7">
-        <v>610747</v>
+        <v>307589</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7">
+        <v>714</v>
+      </c>
+      <c r="I44" s="7">
+        <v>552039</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H44" s="7">
-        <v>1519</v>
-      </c>
-      <c r="I44" s="7">
-        <v>922719</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="M44" s="7">
+        <v>1188</v>
+      </c>
+      <c r="N44" s="7">
+        <v>859628</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M44" s="7">
-        <v>2419</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1533466</v>
-      </c>
-      <c r="O44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,102 +3845,102 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D45" s="7">
-        <v>696881</v>
+        <v>367384</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H45" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I45" s="7">
-        <v>1024803</v>
+        <v>607775</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M45" s="7">
-        <v>2732</v>
+        <v>1395</v>
       </c>
       <c r="N45" s="7">
-        <v>1721684</v>
+        <v>975160</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>32675</v>
+        <v>818</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7">
+        <v>7</v>
+      </c>
+      <c r="I46" s="7">
+        <v>3961</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H46" s="7">
-        <v>36</v>
-      </c>
-      <c r="I46" s="7">
-        <v>25504</v>
-      </c>
-      <c r="J46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L46" s="7" t="s">
+      <c r="M46" s="7">
+        <v>8</v>
+      </c>
+      <c r="N46" s="7">
+        <v>4779</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="M46" s="7">
-        <v>59</v>
-      </c>
-      <c r="N46" s="7">
-        <v>58179</v>
-      </c>
-      <c r="O46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,253 +3949,253 @@
         <v>20</v>
       </c>
       <c r="C47" s="7">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>58672</v>
+        <v>633</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H47" s="7">
+        <v>8</v>
+      </c>
+      <c r="I47" s="7">
+        <v>3800</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M47" s="7">
+        <v>10</v>
+      </c>
+      <c r="N47" s="7">
+        <v>4433</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H47" s="7">
-        <v>72</v>
-      </c>
-      <c r="I47" s="7">
-        <v>54670</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M47" s="7">
-        <v>132</v>
-      </c>
-      <c r="N47" s="7">
-        <v>113342</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="Q47" s="7" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="D48" s="7">
-        <v>343232</v>
+        <v>10535</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H48" s="7">
-        <v>518</v>
+        <v>16</v>
       </c>
       <c r="I48" s="7">
-        <v>403307</v>
+        <v>7174</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M48" s="7">
-        <v>919</v>
+        <v>32</v>
       </c>
       <c r="N48" s="7">
-        <v>746540</v>
+        <v>17710</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>335</v>
+        <v>192</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>336</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="D49" s="7">
-        <v>165861</v>
+        <v>3759</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H49" s="7">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="I49" s="7">
-        <v>141834</v>
+        <v>14113</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="M49" s="7">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="N49" s="7">
-        <v>307696</v>
+        <v>17872</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
-        <v>689</v>
+        <v>7</v>
       </c>
       <c r="D50" s="7">
-        <v>822934</v>
+        <v>4512</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="H50" s="7">
-        <v>1166</v>
+        <v>15</v>
       </c>
       <c r="I50" s="7">
-        <v>898942</v>
+        <v>7865</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M50" s="7">
-        <v>1855</v>
+        <v>22</v>
       </c>
       <c r="N50" s="7">
-        <v>1721876</v>
+        <v>12376</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>352</v>
+        <v>184</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="7">
-        <v>2044</v>
+        <v>426</v>
       </c>
       <c r="D51" s="7">
-        <v>1939117</v>
+        <v>262502</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="H51" s="7">
-        <v>3362</v>
+        <v>805</v>
       </c>
       <c r="I51" s="7">
-        <v>2296641</v>
+        <v>387811</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="M51" s="7">
-        <v>5406</v>
+        <v>1231</v>
       </c>
       <c r="N51" s="7">
-        <v>4235757</v>
+        <v>650313</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,63 +4204,423 @@
         <v>3</v>
       </c>
       <c r="C52" s="7">
+        <v>458</v>
+      </c>
+      <c r="D52" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="7">
+        <v>879</v>
+      </c>
+      <c r="I52" s="7">
+        <v>424724</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M52" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N52" s="7">
+        <v>707483</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>23</v>
+      </c>
+      <c r="D53" s="7">
+        <v>32120</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="7">
+        <v>36</v>
+      </c>
+      <c r="I53" s="7">
+        <v>23392</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" s="7">
+        <v>59</v>
+      </c>
+      <c r="N53" s="7">
+        <v>55512</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>60</v>
+      </c>
+      <c r="D54" s="7">
+        <v>55872</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H54" s="7">
+        <v>72</v>
+      </c>
+      <c r="I54" s="7">
+        <v>50149</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M54" s="7">
+        <v>132</v>
+      </c>
+      <c r="N54" s="7">
+        <v>106021</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7">
+        <v>401</v>
+      </c>
+      <c r="D55" s="7">
+        <v>337144</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H55" s="7">
+        <v>518</v>
+      </c>
+      <c r="I55" s="7">
+        <v>451021</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M55" s="7">
+        <v>919</v>
+      </c>
+      <c r="N55" s="7">
+        <v>788165</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7">
+        <v>147</v>
+      </c>
+      <c r="D56" s="7">
+        <v>170309</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H56" s="7">
+        <v>193</v>
+      </c>
+      <c r="I56" s="7">
+        <v>135013</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M56" s="7">
+        <v>340</v>
+      </c>
+      <c r="N56" s="7">
+        <v>305322</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="7">
+        <v>689</v>
+      </c>
+      <c r="D57" s="7">
+        <v>811412</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1166</v>
+      </c>
+      <c r="I57" s="7">
+        <v>830589</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M57" s="7">
+        <v>1855</v>
+      </c>
+      <c r="N57" s="7">
+        <v>1642001</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="7">
+        <v>2044</v>
+      </c>
+      <c r="D58" s="7">
+        <v>2028030</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H58" s="7">
+        <v>3362</v>
+      </c>
+      <c r="I58" s="7">
+        <v>2208544</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M58" s="7">
+        <v>5406</v>
+      </c>
+      <c r="N58" s="7">
+        <v>4236574</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
         <v>3364</v>
       </c>
-      <c r="D52" s="7">
-        <v>3362492</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="D59" s="7">
+        <v>3434888</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="7">
         <v>5347</v>
       </c>
-      <c r="I52" s="7">
-        <v>3820899</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="I59" s="7">
+        <v>3698708</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M59" s="7">
         <v>8711</v>
       </c>
-      <c r="N52" s="7">
-        <v>7183390</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>363</v>
+      <c r="N59" s="7">
+        <v>7133596</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
